--- a/Interesting links.xlsx
+++ b/Interesting links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurorahofman/Documents/Utveksling/Baysiana/UPC-Final-Project-Bayesian-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7F66AA-AFA1-334F-95DE-172A5BD3E837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E3716F-742B-A14E-8C33-FFCF0573C328}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C9875243-66A9-2A49-8908-43C8B46CDE86}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Interesting links</t>
   </si>
@@ -124,6 +124,51 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>https://www.ssb.no/statbank/table/07995/tableViewLayout1/</t>
+  </si>
+  <si>
+    <t>total death in norway</t>
+  </si>
+  <si>
+    <t>https://momo.isciii.es/public/momo/dashboard/momo_dashboard.html#datos</t>
+  </si>
+  <si>
+    <t>data total death spain</t>
+  </si>
+  <si>
+    <t>https://opendata.cbs.nl/statline/#/CBS/nl/dataset/70895ned/table?fromstatweb</t>
+  </si>
+  <si>
+    <t>weekly deaths Netherland</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/en/statistiques/serie/001641603#Tableau</t>
+  </si>
+  <si>
+    <t>monthly data france</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/interactive/2020/04/21/world/coronavirus-missing-deaths.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excess death with sourses to data!! </t>
+  </si>
+  <si>
+    <t>https://www.niid.go.jp/niid/en/2019-ncov-e/9407-covid-dp-fe-01.html</t>
+  </si>
+  <si>
+    <t>Diamond cruise data</t>
+  </si>
+  <si>
+    <t>True cases</t>
+  </si>
+  <si>
+    <t>https://www.rivm.nl/coronavirus-covid-19/grafieken</t>
+  </si>
+  <si>
+    <t>Agedistribution Netherland</t>
   </si>
 </sst>
 </file>
@@ -184,8 +229,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -203,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,146 +568,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E30F6EC-E283-1E4F-9B34-7F785922D236}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="66" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="26.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="66" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -667,16 +797,23 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{53C7712A-8457-6346-8251-5D677D200A00}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{798D8D2A-32A9-9A41-B77E-FDF3BB4B1A46}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{60E20709-6027-D748-8C24-CC69C13273DE}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{8DAFE15A-06FF-B745-B565-E28C2D253893}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{8DAFE15A-06FF-B745-B565-E28C2D253893}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{2F6E7170-A8E7-D64A-9B91-E3D41C5E563B}"/>
-    <hyperlink ref="B9" r:id="rId7" location="excess-mortality" display="https://www.euromomo.eu/graphs-and-maps - excess-mortality" xr:uid="{839BB98A-E087-4C40-93CD-16DCB3D7F1DC}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{EE278D34-3784-6F46-BB36-E2BB1CF44DEB}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{6C3D5B45-211B-7B4C-B198-E0B789D06B15}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{5A0552A2-731A-3641-9A58-BE5E60F70E89}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{84D23897-E3EA-6D49-9340-F0DB8DE217B5}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{9CBD1FD9-53AE-AA47-A07E-798FFFFFF2F6}"/>
-    <hyperlink ref="A17" r:id="rId13" tooltip="Statistical Modeling, Causal Inference, and Social Science: " display="https://statmodeling.stat.columbia.edu/" xr:uid="{614F0A52-7225-C847-8A86-FDFD86EDFB08}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{5449605C-237D-F64E-B4F3-C247BBDC75D3}"/>
+    <hyperlink ref="B11" r:id="rId7" location="excess-mortality" display="https://www.euromomo.eu/graphs-and-maps - excess-mortality" xr:uid="{839BB98A-E087-4C40-93CD-16DCB3D7F1DC}"/>
+    <hyperlink ref="B24" r:id="rId8" xr:uid="{EE278D34-3784-6F46-BB36-E2BB1CF44DEB}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{6C3D5B45-211B-7B4C-B198-E0B789D06B15}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{5A0552A2-731A-3641-9A58-BE5E60F70E89}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{84D23897-E3EA-6D49-9340-F0DB8DE217B5}"/>
+    <hyperlink ref="B28" r:id="rId12" xr:uid="{9CBD1FD9-53AE-AA47-A07E-798FFFFFF2F6}"/>
+    <hyperlink ref="A28" r:id="rId13" tooltip="Statistical Modeling, Causal Inference, and Social Science: " display="https://statmodeling.stat.columbia.edu/" xr:uid="{614F0A52-7225-C847-8A86-FDFD86EDFB08}"/>
+    <hyperlink ref="B29" r:id="rId14" xr:uid="{5449605C-237D-F64E-B4F3-C247BBDC75D3}"/>
+    <hyperlink ref="B12" r:id="rId15" xr:uid="{126AE5B2-4D03-AF46-87EB-FF8C1DFCCDB2}"/>
+    <hyperlink ref="B13" r:id="rId16" location="datos" display="https://momo.isciii.es/public/momo/dashboard/momo_dashboard.html - datos" xr:uid="{72D9ECF1-2C9A-3046-98CC-714B32E875CE}"/>
+    <hyperlink ref="B15" r:id="rId17" location="/CBS/nl/dataset/70895ned/table?fromstatweb" display="https://opendata.cbs.nl/statline/ - /CBS/nl/dataset/70895ned/table?fromstatweb" xr:uid="{233705D0-88A7-2248-9F17-D11705003664}"/>
+    <hyperlink ref="B14" r:id="rId18" location="Tableau" display="https://www.insee.fr/en/statistiques/serie/001641603 - Tableau" xr:uid="{A2522ED4-7096-5847-90E6-0087759BA5E8}"/>
+    <hyperlink ref="B30" r:id="rId19" xr:uid="{F91B7F2A-34A3-8342-A04A-CCE1FB7817D1}"/>
+    <hyperlink ref="B18" r:id="rId20" xr:uid="{01761D02-C4FE-5141-B004-5F5EE744E070}"/>
+    <hyperlink ref="B19" r:id="rId21" xr:uid="{EAF9B542-4617-9F49-9FE5-7925BA402EC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Interesting links.xlsx
+++ b/Interesting links.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurorahofman/Documents/Utveksling/Baysiana/UPC-Final-Project-Bayesian-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED8B5D0-A755-1A4D-A027-C283855F4378}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09428AA1-5D7C-1048-AAF7-BC69858EFF47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="720" windowWidth="12860" windowHeight="14740" xr2:uid="{C9875243-66A9-2A49-8908-43C8B46CDE86}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="12860" windowHeight="14740" xr2:uid="{C9875243-66A9-2A49-8908-43C8B46CDE86}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Interesting links</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>with data</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/birthsdeathsandmarriages/deaths/datasets/weeklyprovisionalfiguresondeathsregisteredinenglandandwales</t>
+  </si>
+  <si>
+    <t>weekly deaths england+wales historic</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/birthsdeathsandmarriages/deaths/bulletins/deathsregisteredweeklyinenglandandwalesprovisional/latest#deaths-registered-by-week</t>
+  </si>
+  <si>
+    <t>weekly death+ korona 2020</t>
   </si>
 </sst>
 </file>
@@ -601,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E30F6EC-E283-1E4F-9B34-7F785922D236}">
-  <dimension ref="A2:C34"/>
+  <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,139 +739,158 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="B28" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
+      <c r="A31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -869,28 +900,29 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{53C7712A-8457-6346-8251-5D677D200A00}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{798D8D2A-32A9-9A41-B77E-FDF3BB4B1A46}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{60E20709-6027-D748-8C24-CC69C13273DE}"/>
-    <hyperlink ref="B23" r:id="rId5" xr:uid="{8DAFE15A-06FF-B745-B565-E28C2D253893}"/>
+    <hyperlink ref="B26" r:id="rId5" xr:uid="{8DAFE15A-06FF-B745-B565-E28C2D253893}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{2F6E7170-A8E7-D64A-9B91-E3D41C5E563B}"/>
     <hyperlink ref="B11" r:id="rId7" location="excess-mortality" display="https://www.euromomo.eu/graphs-and-maps - excess-mortality" xr:uid="{839BB98A-E087-4C40-93CD-16DCB3D7F1DC}"/>
-    <hyperlink ref="B24" r:id="rId8" xr:uid="{EE278D34-3784-6F46-BB36-E2BB1CF44DEB}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{6C3D5B45-211B-7B4C-B198-E0B789D06B15}"/>
-    <hyperlink ref="B26" r:id="rId10" xr:uid="{5A0552A2-731A-3641-9A58-BE5E60F70E89}"/>
-    <hyperlink ref="B27" r:id="rId11" xr:uid="{84D23897-E3EA-6D49-9340-F0DB8DE217B5}"/>
-    <hyperlink ref="B28" r:id="rId12" xr:uid="{9CBD1FD9-53AE-AA47-A07E-798FFFFFF2F6}"/>
-    <hyperlink ref="A28" r:id="rId13" tooltip="Statistical Modeling, Causal Inference, and Social Science: " display="https://statmodeling.stat.columbia.edu/" xr:uid="{614F0A52-7225-C847-8A86-FDFD86EDFB08}"/>
-    <hyperlink ref="B29" r:id="rId14" xr:uid="{5449605C-237D-F64E-B4F3-C247BBDC75D3}"/>
+    <hyperlink ref="B27" r:id="rId8" xr:uid="{EE278D34-3784-6F46-BB36-E2BB1CF44DEB}"/>
+    <hyperlink ref="B28" r:id="rId9" xr:uid="{6C3D5B45-211B-7B4C-B198-E0B789D06B15}"/>
+    <hyperlink ref="B29" r:id="rId10" xr:uid="{5A0552A2-731A-3641-9A58-BE5E60F70E89}"/>
+    <hyperlink ref="B30" r:id="rId11" xr:uid="{84D23897-E3EA-6D49-9340-F0DB8DE217B5}"/>
+    <hyperlink ref="B31" r:id="rId12" xr:uid="{9CBD1FD9-53AE-AA47-A07E-798FFFFFF2F6}"/>
+    <hyperlink ref="A31" r:id="rId13" tooltip="Statistical Modeling, Causal Inference, and Social Science: " display="https://statmodeling.stat.columbia.edu/" xr:uid="{614F0A52-7225-C847-8A86-FDFD86EDFB08}"/>
+    <hyperlink ref="B32" r:id="rId14" xr:uid="{5449605C-237D-F64E-B4F3-C247BBDC75D3}"/>
     <hyperlink ref="B12" r:id="rId15" xr:uid="{126AE5B2-4D03-AF46-87EB-FF8C1DFCCDB2}"/>
     <hyperlink ref="B13" r:id="rId16" location="datos" display="https://momo.isciii.es/public/momo/dashboard/momo_dashboard.html - datos" xr:uid="{72D9ECF1-2C9A-3046-98CC-714B32E875CE}"/>
     <hyperlink ref="B15" r:id="rId17" location="/CBS/nl/dataset/70895ned/table?fromstatweb" display="https://opendata.cbs.nl/statline/ - /CBS/nl/dataset/70895ned/table?fromstatweb" xr:uid="{233705D0-88A7-2248-9F17-D11705003664}"/>
     <hyperlink ref="B14" r:id="rId18" location="Tableau" display="https://www.insee.fr/en/statistiques/serie/001641603 - Tableau" xr:uid="{A2522ED4-7096-5847-90E6-0087759BA5E8}"/>
-    <hyperlink ref="B30" r:id="rId19" xr:uid="{F91B7F2A-34A3-8342-A04A-CCE1FB7817D1}"/>
-    <hyperlink ref="B18" r:id="rId20" xr:uid="{01761D02-C4FE-5141-B004-5F5EE744E070}"/>
-    <hyperlink ref="B20" r:id="rId21" location="Number_of_confirmed_cases" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_on_Diamond_Princess - Number_of_confirmed_cases" xr:uid="{28E33EF1-ABE4-2641-83E2-982B8BE8E755}"/>
-    <hyperlink ref="B19" r:id="rId22" xr:uid="{EAF9B542-4617-9F49-9FE5-7925BA402EC2}"/>
-    <hyperlink ref="B21" r:id="rId23" display="../../../../Downloads/COVID-19_WebSite_rapport_20200429_1005.pdf" xr:uid="{C36144A2-EF24-0D48-8E04-224BFC3A2AB0}"/>
-    <hyperlink ref="B31" r:id="rId24" xr:uid="{145F30CB-6A92-4B44-98D4-783F233AF468}"/>
-    <hyperlink ref="B33" r:id="rId25" xr:uid="{DB68C8DD-4BB2-F840-A39D-4E11BD6E1F52}"/>
-    <hyperlink ref="B34" r:id="rId26" xr:uid="{7D0E2F4E-908D-0243-95EB-5833ECFC1196}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{F91B7F2A-34A3-8342-A04A-CCE1FB7817D1}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{01761D02-C4FE-5141-B004-5F5EE744E070}"/>
+    <hyperlink ref="B23" r:id="rId21" location="Number_of_confirmed_cases" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_on_Diamond_Princess - Number_of_confirmed_cases" xr:uid="{28E33EF1-ABE4-2641-83E2-982B8BE8E755}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{EAF9B542-4617-9F49-9FE5-7925BA402EC2}"/>
+    <hyperlink ref="B24" r:id="rId23" display="../../../../Downloads/COVID-19_WebSite_rapport_20200429_1005.pdf" xr:uid="{C36144A2-EF24-0D48-8E04-224BFC3A2AB0}"/>
+    <hyperlink ref="B34" r:id="rId24" xr:uid="{145F30CB-6A92-4B44-98D4-783F233AF468}"/>
+    <hyperlink ref="B36" r:id="rId25" xr:uid="{DB68C8DD-4BB2-F840-A39D-4E11BD6E1F52}"/>
+    <hyperlink ref="B37" r:id="rId26" xr:uid="{7D0E2F4E-908D-0243-95EB-5833ECFC1196}"/>
+    <hyperlink ref="B17" r:id="rId27" xr:uid="{95E32C52-15CB-0448-8D98-48C76B0336F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Interesting links.xlsx
+++ b/Interesting links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurorahofman/Documents/Utveksling/Baysiana/UPC-Final-Project-Bayesian-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09428AA1-5D7C-1048-AAF7-BC69858EFF47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538FAF10-46FB-BF4C-8BAA-7CEE07ADAA29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="12860" windowHeight="14740" xr2:uid="{C9875243-66A9-2A49-8908-43C8B46CDE86}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <dimension ref="A2:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
